--- a/project/excel/include_linkml.xlsx
+++ b/project/excel/include_linkml.xlsx
@@ -4,19 +4,25 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="15" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Biospecimen" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataFile" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Participant" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Study" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thing" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Biospecimen1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataFile1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Participant1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Study1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thing1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aliquot" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assay" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Biospecimen" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataFile" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FamilyGroup" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Participant" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Study" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thing" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aliquot1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assay1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Biospecimen1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataFile1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FamilyGroup1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Participant1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Study1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thing1" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -422,7 +428,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,6 +457,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>uses_biospecimen</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_output</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>age_at_biospecimen_collection</t>
         </is>
       </c>
@@ -514,47 +569,503 @@
       <c r="Q1" t="inlineStr">
         <is>
           <t>has_study</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>has_aliquot</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>access_url</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>collection_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>data_access</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>data_category</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>data_type</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>experimental_strategy</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>file_id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>file_name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>has_biospecimen</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>has_participant</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>has_study</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>participant_id</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>original_file_name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_participant</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>age_at_diagnosis</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>age_at_phenotype_assignment</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>age_at_the_last_vital_status</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>diagnosis_icd</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>diagnosis_mondo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>diagnosis_ncit</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>diagnosis_source_text</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>diagnosis_type</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>down_syndrome_status</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>ethnicity</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>external_id</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>family_id</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>family_relationship</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>family_type</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>father_id</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>has_datafile</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>has_study</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>mother_id</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>outcomes_vital_status</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>participant_id</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>phenotype_hpo</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>phenotype_source_text</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>phenotype_interpretation</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>race</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dbgap</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>program</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>study_code</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>study_name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>uses_biospecimen</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_output</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>age_at_biospecimen_collection</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>biospecimen_storage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>collection_id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>collection_sample_type</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>container_id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>has_datafile</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>has_participant</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>has_study</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>laboratory_procedure</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>parent_sample_id</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>parent_sample_type</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>sample_availability</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>sample_id</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>sample_type</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>volume_unit</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>has_study</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>has_aliquot</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation sqref="L2:L1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"Available,Unavailable"</formula1>
+      <formula1>"available,unavailable"</formula1>
     </dataValidation>
     <dataValidation sqref="L2:L1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"Available,Unavailable"</formula1>
+      <formula1>"available,unavailable"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,23 +1142,54 @@
       <c r="N1" t="inlineStr">
         <is>
           <t>size</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>original_file_name</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation sqref="C2:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"Controlled,Open,Registered"</formula1>
+      <formula1>"controlled,cpen,registered"</formula1>
     </dataValidation>
     <dataValidation sqref="C2:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"Controlled,Open,Registered"</formula1>
+      <formula1>"controlled,cpen,registered"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_participant</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -791,47 +1333,47 @@
   </sheetData>
   <dataValidations count="12">
     <dataValidation sqref="I2:I1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"D21,T21"</formula1>
+      <formula1>"d21,t21"</formula1>
     </dataValidation>
     <dataValidation sqref="J2:J1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"Asked but unknown,Hispanic or Latino,Not Hispanic or Latino"</formula1>
+      <formula1>"asked_but_unknown,hispanic_or_latino,not_hispanic_or_latino"</formula1>
     </dataValidation>
     <dataValidation sqref="N2:N1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"Duo,Other,Proband-only,Trio"</formula1>
+      <formula1>"duo,other,proband_only,trio"</formula1>
     </dataValidation>
     <dataValidation sqref="W2:W1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"Not Observed,Observed"</formula1>
+      <formula1>"not_observed,observed"</formula1>
     </dataValidation>
     <dataValidation sqref="X2:X1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"American Indian or Alaska Native,Asian,Black or African American,More than one race,Native Hawaiian or Other Pacific Islander,Other,White"</formula1>
+      <formula1>"american_indian_or_alaskan_native,asian,black_or_african_american,more_than_one_race,native_hawaiian_or_other_pacific_islander,other,white"</formula1>
     </dataValidation>
     <dataValidation sqref="Y2:Y1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"Female,Male,Other,Unknown"</formula1>
+      <formula1>"female,male,other,unknown"</formula1>
     </dataValidation>
     <dataValidation sqref="I2:I1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"D21,T21"</formula1>
+      <formula1>"d21,t21"</formula1>
     </dataValidation>
     <dataValidation sqref="J2:J1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"Asked but unknown,Hispanic or Latino,Not Hispanic or Latino"</formula1>
+      <formula1>"asked_but_unknown,hispanic_or_latino,not_hispanic_or_latino"</formula1>
     </dataValidation>
     <dataValidation sqref="N2:N1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"Duo,Other,Proband-only,Trio"</formula1>
+      <formula1>"duo,other,proband_only,trio"</formula1>
     </dataValidation>
     <dataValidation sqref="W2:W1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"Not Observed,Observed"</formula1>
+      <formula1>"not_observed,observed"</formula1>
     </dataValidation>
     <dataValidation sqref="X2:X1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"American Indian or Alaska Native,Asian,Black or African American,More than one race,Native Hawaiian or Other Pacific Islander,Other,White"</formula1>
+      <formula1>"american_indian_or_alaskan_native,asian,black_or_african_american,more_than_one_race,native_hawaiian_or_other_pacific_islander,other,white"</formula1>
     </dataValidation>
     <dataValidation sqref="Y2:Y1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"Female,Male,Other,Unknown"</formula1>
+      <formula1>"female,male,other,unknown"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -870,23 +1412,23 @@
   </sheetData>
   <dataValidations count="4">
     <dataValidation sqref="B2:B1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"INCLUDE,KF"</formula1>
+      <formula1>"include,kf"</formula1>
     </dataValidation>
     <dataValidation sqref="C2:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"DS-COG-ALL,DS-PCGC,DS360-CHD,DSC,HTP"</formula1>
+      <formula1>"ds_cog_all,ds_pcgc,ds360_chd,dsc,htp"</formula1>
     </dataValidation>
     <dataValidation sqref="B2:B1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"INCLUDE,KF"</formula1>
+      <formula1>"include,kf"</formula1>
     </dataValidation>
     <dataValidation sqref="C2:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"DS-COG-ALL,DS-PCGC,DS360-CHD,DSC,HTP"</formula1>
+      <formula1>"ds_cog_all,ds_pcgc,ds360_chd,dsc,htp"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -904,386 +1446,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Q1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>age_at_biospecimen_collection</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>biospecimen_storage</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>collection_id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>collection_sample_type</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>container_id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>has_datafile</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>has_participant</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>has_study</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>laboratory_procedure</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>parent_sample_id</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>parent_sample_type</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>sample_availability</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>sample_id</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>sample_type</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>volume_unit</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>has_study</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>access_url</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>collection_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>data_access</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>data_category</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>data_type</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>experimental_strategy</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>file_id</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>file_name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>format</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>has_biospecimen</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>has_participant</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>has_study</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>participant_id</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>size</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Y1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>age_at_diagnosis</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>age_at_phenotype_assignment</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>age_at_the_last_vital_status</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>diagnosis_icd</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>diagnosis_mondo</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>diagnosis_ncit</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>diagnosis_source_text</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>diagnosis_type</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>down_syndrome_status</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>ethnicity</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>external_id</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>family_id</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>family_relationship</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>family_type</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>father_id</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>has_datafile</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>has_study</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>mother_id</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>outcomes_vital_status</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>participant_id</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>phenotype_hpo</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>phenotype_source_text</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>phenotype_interpretation</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>race</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>sex</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dbgap</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>program</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>study_code</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>study_name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/project/excel/include_linkml.xlsx
+++ b/project/excel/include_linkml.xlsx
@@ -4,25 +4,27 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="15" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="17" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aliquot" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assay" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Biospecimen" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataFile" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FamilyGroup" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Participant" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Study" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thing" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aliquot1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assay1" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Biospecimen1" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataFile1" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FamilyGroup1" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Participant1" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Study1" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thing1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Condition" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataFile" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FamilyGroup" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Participant" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Study" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thing" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aliquot1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assay1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Biospecimen1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Condition1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataFile1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FamilyGroup1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Participant1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Study1" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thing1" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,6 +448,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -471,13 +491,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:R1"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,11 +588,6 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>has_study</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
           <t>has_aliquot</t>
         </is>
       </c>
@@ -582,13 +597,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O1"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,77 +614,62 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>access_url</t>
+          <t>has_participant</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>collection_id</t>
+          <t>age_at_condition_observation</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>data_access</t>
+          <t>mondo_label</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>data_category</t>
+          <t>mondo_code</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>data_type</t>
+          <t>condition_interpretation</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>experimental_strategy</t>
+          <t>condition_data_source</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>file_id</t>
+          <t>hpo_label</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>file_name</t>
+          <t>hpo_code</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>format</t>
+          <t>maxo_label</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>has_biospecimen</t>
+          <t>maxo_code</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>has_participant</t>
+          <t>other_label</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>has_study</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>participant_id</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>size</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>original_file_name</t>
+          <t>other_code</t>
         </is>
       </c>
     </row>
@@ -678,13 +678,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -695,7 +695,77 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>access_url</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>collection_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>data_access</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>data_category</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>data_type</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>experimental_strategy</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>file_id</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>file_name</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>has_biospecimen</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>has_participant</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>has_study</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>participant_id</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>original_file_name</t>
         </is>
       </c>
     </row>
@@ -704,13 +774,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Y1"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,127 +791,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>age_at_diagnosis</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>age_at_phenotype_assignment</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>age_at_the_last_vital_status</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>diagnosis_icd</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>diagnosis_mondo</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>diagnosis_ncit</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>diagnosis_source_text</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>diagnosis_type</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>down_syndrome_status</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>ethnicity</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>external_id</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>family_id</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>family_relationship</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>family_type</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>father_id</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>has_datafile</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>has_study</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>mother_id</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>outcomes_vital_status</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>participant_id</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>phenotype_hpo</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>phenotype_source_text</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>phenotype_interpretation</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>race</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>sex</t>
+          <t>has_participant</t>
         </is>
       </c>
     </row>
@@ -850,13 +800,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -867,22 +817,77 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>dbgap</t>
+          <t>age_at_last_vital_status</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>down_syndrome_status</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>study_code</t>
+          <t>ethnicity</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>study_name</t>
+          <t>external_id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>family_id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>family_relationship</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>family_type</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>father_id</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>has_datafile</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>has_study</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>mother_id</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>outcomes_vital_status</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>participant_id</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>race</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>sex</t>
         </is>
       </c>
     </row>
@@ -891,31 +896,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -926,12 +913,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>uses_biospecimen</t>
+          <t>dbgap</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>has_output</t>
+          <t>program</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>study_code</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>study_name</t>
         </is>
       </c>
     </row>
@@ -940,13 +937,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:R1"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -957,6 +972,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>uses_biospecimen</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_output</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>age_at_biospecimen_collection</t>
         </is>
       </c>
@@ -1036,11 +1082,6 @@
         </is>
       </c>
       <c r="Q1" t="inlineStr">
-        <is>
-          <t>has_study</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
         <is>
           <t>has_aliquot</t>
         </is>
@@ -1065,6 +1106,101 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_participant</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>age_at_condition_observation</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>mondo_label</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>mondo_code</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>condition_interpretation</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>condition_data_source</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>hpo_label</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>hpo_code</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>maxo_label</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>maxo_code</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>other_label</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>other_code</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation sqref="E2:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"observed,not_observed"</formula1>
+    </dataValidation>
+    <dataValidation sqref="F2:F1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"clinical,self_reported"</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"observed,not_observed"</formula1>
+    </dataValidation>
+    <dataValidation sqref="F2:F1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"clinical,self_reported"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1153,17 +1289,17 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation sqref="C2:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"controlled,cpen,registered"</formula1>
+      <formula1>"controlled,open,registered"</formula1>
     </dataValidation>
     <dataValidation sqref="C2:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"controlled,cpen,registered"</formula1>
+      <formula1>"controlled,open,registered"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1189,13 +1325,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Y1"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1206,166 +1342,110 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>age_at_diagnosis</t>
+          <t>age_at_last_vital_status</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>age_at_phenotype_assignment</t>
+          <t>down_syndrome_status</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>age_at_the_last_vital_status</t>
+          <t>ethnicity</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>diagnosis_icd</t>
+          <t>external_id</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>diagnosis_mondo</t>
+          <t>family_id</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>diagnosis_ncit</t>
+          <t>family_relationship</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>diagnosis_source_text</t>
+          <t>family_type</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>diagnosis_type</t>
+          <t>father_id</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>down_syndrome_status</t>
+          <t>has_datafile</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>ethnicity</t>
+          <t>has_study</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>external_id</t>
+          <t>mother_id</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>family_id</t>
+          <t>outcomes_vital_status</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>family_relationship</t>
+          <t>participant_id</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>family_type</t>
+          <t>race</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
-        <is>
-          <t>father_id</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>has_datafile</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>has_study</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>mother_id</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>outcomes_vital_status</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>participant_id</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>phenotype_hpo</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>phenotype_source_text</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>phenotype_interpretation</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>race</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
         <is>
           <t>sex</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
-    <dataValidation sqref="I2:I1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="10">
+    <dataValidation sqref="B2:B1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"d21,t21"</formula1>
     </dataValidation>
-    <dataValidation sqref="J2:J1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"asked_but_unknown,hispanic_or_latino,not_hispanic_or_latino"</formula1>
+    <dataValidation sqref="C2:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"asked_but_unknown,hispanic_or_latino,not_hispanic_or_latino,prefer_not_to_answer,unknown"</formula1>
+    </dataValidation>
+    <dataValidation sqref="G2:G1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"duo,other,proband_only,trio,trio_plus"</formula1>
     </dataValidation>
     <dataValidation sqref="N2:N1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"duo,other,proband_only,trio"</formula1>
-    </dataValidation>
-    <dataValidation sqref="W2:W1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"not_observed,observed"</formula1>
-    </dataValidation>
-    <dataValidation sqref="X2:X1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"american_indian_or_alaskan_native,asian,black_or_african_american,more_than_one_race,native_hawaiian_or_other_pacific_islander,other,white"</formula1>
-    </dataValidation>
-    <dataValidation sqref="Y2:Y1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"american_indian_or_alaskan_native,asian,black_or_african_american,more_than_one_race,native_hawaiian_or_other_pacific_islander,other,white,prefer_not_to_answer"</formula1>
+    </dataValidation>
+    <dataValidation sqref="O2:O1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"female,male,other,unknown"</formula1>
     </dataValidation>
-    <dataValidation sqref="I2:I1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B2:B1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"d21,t21"</formula1>
     </dataValidation>
-    <dataValidation sqref="J2:J1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"asked_but_unknown,hispanic_or_latino,not_hispanic_or_latino"</formula1>
+    <dataValidation sqref="C2:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"asked_but_unknown,hispanic_or_latino,not_hispanic_or_latino,prefer_not_to_answer,unknown"</formula1>
+    </dataValidation>
+    <dataValidation sqref="G2:G1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"duo,other,proband_only,trio,trio_plus"</formula1>
     </dataValidation>
     <dataValidation sqref="N2:N1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"duo,other,proband_only,trio"</formula1>
-    </dataValidation>
-    <dataValidation sqref="W2:W1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"not_observed,observed"</formula1>
-    </dataValidation>
-    <dataValidation sqref="X2:X1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"american_indian_or_alaskan_native,asian,black_or_african_american,more_than_one_race,native_hawaiian_or_other_pacific_islander,other,white"</formula1>
-    </dataValidation>
-    <dataValidation sqref="Y2:Y1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"american_indian_or_alaskan_native,asian,black_or_african_american,more_than_one_race,native_hawaiian_or_other_pacific_islander,other,white,prefer_not_to_answer"</formula1>
+    </dataValidation>
+    <dataValidation sqref="O2:O1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"female,male,other,unknown"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1373,7 +1453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1415,20 +1495,20 @@
       <formula1>"include,kf"</formula1>
     </dataValidation>
     <dataValidation sqref="C2:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"ds_cog_all,ds_pcgc,ds360_chd,dsc,htp"</formula1>
+      <formula1>"ds_cog_all,ds_pcgc,ds360_chd,dsc,htp,abcds,ads,ds_brain,ds_cog_aml,bri_dsr,ds_isp,ds_nexus,ds_pals,ds_sleep,ecods,exceeds,trc_ds,x01_desmith,x01_hakon"</formula1>
     </dataValidation>
     <dataValidation sqref="B2:B1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"include,kf"</formula1>
     </dataValidation>
     <dataValidation sqref="C2:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"ds_cog_all,ds_pcgc,ds360_chd,dsc,htp"</formula1>
+      <formula1>"ds_cog_all,ds_pcgc,ds360_chd,dsc,htp,abcds,ads,ds_brain,ds_cog_aml,bri_dsr,ds_isp,ds_nexus,ds_pals,ds_sleep,ecods,exceeds,trc_ds,x01_desmith,x01_hakon"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1444,22 +1524,4 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>